--- a/demo/WACS/wacs_new.xlsx
+++ b/demo/WACS/wacs_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FILES\PROJECTS\pandafp\demo\WACS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yerlan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C8FA37-5502-4D75-B560-C091F93DCE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3F871F-7F10-4427-88E0-6E2B072E6A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -18356,7 +18356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
@@ -19831,7 +19831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -27521,16 +27521,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -27631,7 +27631,7 @@
         <v>39</v>
       </c>
       <c r="F2" s="2">
-        <v>501</v>
+        <v>801</v>
       </c>
       <c r="G2" s="2">
         <v>500</v>
@@ -27640,16 +27640,16 @@
         <v>220</v>
       </c>
       <c r="I2" s="2">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="J2" s="2">
-        <v>0.189</v>
+        <v>2.51206E-2</v>
       </c>
       <c r="K2" s="2">
-        <v>172</v>
+        <v>297.45</v>
       </c>
       <c r="L2" s="2">
-        <v>0.246</v>
+        <v>0.15</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="V2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -27690,13 +27690,27 @@
       <c r="E3" s="2">
         <v>51</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="F3" s="2">
+        <v>630</v>
+      </c>
+      <c r="G3" s="2">
+        <v>525</v>
+      </c>
+      <c r="H3" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.20385719999999999</v>
+      </c>
+      <c r="K3" s="2">
+        <v>270.97000000000003</v>
+      </c>
+      <c r="L3" s="2">
+        <v>5.8000000000000003E-2</v>
+      </c>
       <c r="M3">
         <v>0</v>
       </c>
@@ -27704,7 +27718,7 @@
         <v>0</v>
       </c>
       <c r="V3" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -27736,13 +27750,27 @@
       <c r="E4" s="2">
         <v>60</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="F4" s="2">
+        <v>630</v>
+      </c>
+      <c r="G4" s="2">
+        <v>525</v>
+      </c>
+      <c r="H4" s="2">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.20317460000000001</v>
+      </c>
+      <c r="K4" s="2">
+        <v>380</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.21</v>
+      </c>
       <c r="M4">
         <v>0</v>
       </c>
@@ -27750,7 +27778,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -27782,13 +27810,27 @@
       <c r="E5" s="2">
         <v>30</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="F5" s="2">
+        <v>400</v>
+      </c>
+      <c r="G5" s="2">
+        <v>525</v>
+      </c>
+      <c r="H5" s="2">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.20075000000000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>370</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.54</v>
+      </c>
       <c r="M5">
         <v>0</v>
       </c>
@@ -27796,7 +27838,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -27828,13 +27870,27 @@
       <c r="E6" s="2">
         <v>33</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="F6" s="2">
+        <v>801</v>
+      </c>
+      <c r="G6" s="2">
+        <v>500</v>
+      </c>
+      <c r="H6" s="2">
+        <v>237</v>
+      </c>
+      <c r="I6" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.1706617</v>
+      </c>
+      <c r="K6" s="2">
+        <v>273.3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.29099999999999998</v>
+      </c>
       <c r="M6">
         <v>0</v>
       </c>
@@ -27842,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -27874,13 +27930,27 @@
       <c r="E7" s="2">
         <v>50</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="F7" s="2">
+        <v>630</v>
+      </c>
+      <c r="G7" s="2">
+        <v>242</v>
+      </c>
+      <c r="H7" s="2">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.20634920000000001</v>
+      </c>
+      <c r="K7" s="2">
+        <v>380</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.35</v>
+      </c>
       <c r="M7">
         <v>0</v>
       </c>
@@ -27888,7 +27958,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -27920,13 +27990,27 @@
       <c r="E8" s="2">
         <v>130</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="F8" s="2">
+        <v>501</v>
+      </c>
+      <c r="G8" s="2">
+        <v>525</v>
+      </c>
+      <c r="H8" s="2">
+        <v>230</v>
+      </c>
+      <c r="I8" s="2">
+        <v>11</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.14781040000000001</v>
+      </c>
+      <c r="K8" s="2">
+        <v>172</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.246</v>
+      </c>
       <c r="M8">
         <v>0</v>
       </c>
@@ -27966,13 +28050,27 @@
       <c r="E9" s="2">
         <v>130</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="F9" s="2">
+        <v>501</v>
+      </c>
+      <c r="G9" s="2">
+        <v>525</v>
+      </c>
+      <c r="H9" s="2">
+        <v>230</v>
+      </c>
+      <c r="I9" s="2">
+        <v>11</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.14781040000000001</v>
+      </c>
+      <c r="K9" s="2">
+        <v>172</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.246</v>
+      </c>
       <c r="M9">
         <v>0</v>
       </c>
@@ -27980,7 +28078,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -28012,13 +28110,27 @@
       <c r="E10" s="2">
         <v>2925</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="F10" s="2">
+        <v>500</v>
+      </c>
+      <c r="G10" s="2">
+        <v>500</v>
+      </c>
+      <c r="H10" s="2">
+        <v>220</v>
+      </c>
+      <c r="I10" s="2">
+        <v>11</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="K10" s="2">
+        <v>270</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="M10">
         <v>0</v>
       </c>
@@ -28026,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
         <v>1</v>
@@ -28058,13 +28170,27 @@
       <c r="E11" s="2">
         <v>241</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="F11" s="2">
+        <v>500</v>
+      </c>
+      <c r="G11" s="2">
+        <v>500</v>
+      </c>
+      <c r="H11" s="2">
+        <v>230</v>
+      </c>
+      <c r="I11" s="2">
+        <v>11</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="K11" s="2">
+        <v>270</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="M11">
         <v>0</v>
       </c>
@@ -28104,13 +28230,27 @@
       <c r="E12" s="2">
         <v>241</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="F12" s="2">
+        <v>500</v>
+      </c>
+      <c r="G12" s="2">
+        <v>500</v>
+      </c>
+      <c r="H12" s="2">
+        <v>230</v>
+      </c>
+      <c r="I12" s="2">
+        <v>11</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="K12" s="2">
+        <v>270</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="M12">
         <v>0</v>
       </c>
@@ -28118,7 +28258,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W12">
         <v>1</v>
@@ -28150,13 +28290,27 @@
       <c r="E13" s="2">
         <v>310</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="F13" s="2">
+        <v>500</v>
+      </c>
+      <c r="G13" s="2">
+        <v>500</v>
+      </c>
+      <c r="H13" s="2">
+        <v>230</v>
+      </c>
+      <c r="I13" s="2">
+        <v>11</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="K13" s="2">
+        <v>270</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="M13">
         <v>0</v>
       </c>
@@ -28164,7 +28318,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>1</v>
@@ -28196,13 +28350,27 @@
       <c r="E14" s="2">
         <v>356</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="F14" s="2">
+        <v>240</v>
+      </c>
+      <c r="G14" s="2">
+        <v>242</v>
+      </c>
+      <c r="H14" s="2">
+        <v>121</v>
+      </c>
+      <c r="I14" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.2866667</v>
+      </c>
+      <c r="K14" s="2">
+        <v>452</v>
+      </c>
+      <c r="L14" s="2">
+        <v>3</v>
+      </c>
       <c r="M14">
         <v>0</v>
       </c>
@@ -28210,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W14">
         <v>1</v>
@@ -28242,13 +28410,27 @@
       <c r="E15" s="2">
         <v>455</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="F15" s="2">
+        <v>125</v>
+      </c>
+      <c r="G15" s="2">
+        <v>220</v>
+      </c>
+      <c r="H15" s="2">
+        <v>110</v>
+      </c>
+      <c r="I15" s="2">
+        <v>11</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.252</v>
+      </c>
+      <c r="K15" s="2">
+        <v>65</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.4</v>
+      </c>
       <c r="M15">
         <v>0</v>
       </c>
@@ -28256,7 +28438,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>1</v>
@@ -28288,13 +28470,27 @@
       <c r="E16" s="2">
         <v>468</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="F16" s="2">
+        <v>500</v>
+      </c>
+      <c r="G16" s="2">
+        <v>500</v>
+      </c>
+      <c r="H16" s="2">
+        <v>230</v>
+      </c>
+      <c r="I16" s="2">
+        <v>11</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="K16" s="2">
+        <v>270</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="M16">
         <v>0</v>
       </c>
@@ -28302,7 +28498,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>1</v>
@@ -28334,13 +28530,27 @@
       <c r="E17" s="2">
         <v>472</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="F17" s="2">
+        <v>125</v>
+      </c>
+      <c r="G17" s="2">
+        <v>230</v>
+      </c>
+      <c r="H17" s="2">
+        <v>121</v>
+      </c>
+      <c r="I17" s="2">
+        <v>11</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.252</v>
+      </c>
+      <c r="K17" s="2">
+        <v>65</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.4</v>
+      </c>
       <c r="M17">
         <v>0</v>
       </c>
@@ -28348,7 +28558,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W17">
         <v>1</v>
@@ -28380,13 +28590,27 @@
       <c r="E18" s="2">
         <v>466</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="F18" s="2">
+        <v>500</v>
+      </c>
+      <c r="G18" s="2">
+        <v>500</v>
+      </c>
+      <c r="H18" s="2">
+        <v>230</v>
+      </c>
+      <c r="I18" s="2">
+        <v>11</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="K18" s="2">
+        <v>270</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="M18">
         <v>0</v>
       </c>
@@ -28394,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>1</v>
@@ -28426,13 +28650,27 @@
       <c r="E19" s="2">
         <v>801</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="F19" s="2">
+        <v>501</v>
+      </c>
+      <c r="G19" s="2">
+        <v>525</v>
+      </c>
+      <c r="H19" s="2">
+        <v>230</v>
+      </c>
+      <c r="I19" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="J19" s="2">
+        <v>6.0413179999999997E-2</v>
+      </c>
+      <c r="K19" s="2">
+        <v>206.49</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.35</v>
+      </c>
       <c r="M19">
         <v>0</v>
       </c>
@@ -28440,7 +28678,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>1</v>
@@ -28472,13 +28710,27 @@
       <c r="E20" s="2">
         <v>831</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="F20" s="2">
+        <v>501</v>
+      </c>
+      <c r="G20" s="2">
+        <v>525</v>
+      </c>
+      <c r="H20" s="2">
+        <v>230</v>
+      </c>
+      <c r="I20" s="2">
+        <v>9.66</v>
+      </c>
+      <c r="J20" s="2">
+        <v>6.2534930000000002E-2</v>
+      </c>
+      <c r="K20" s="2">
+        <v>306</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.92</v>
+      </c>
       <c r="M20">
         <v>0</v>
       </c>
@@ -28518,13 +28770,27 @@
       <c r="E21" s="2">
         <v>831</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="F21" s="2">
+        <v>501</v>
+      </c>
+      <c r="G21" s="2">
+        <v>525</v>
+      </c>
+      <c r="H21" s="2">
+        <v>230</v>
+      </c>
+      <c r="I21" s="2">
+        <v>9.66</v>
+      </c>
+      <c r="J21" s="2">
+        <v>6.2534930000000002E-2</v>
+      </c>
+      <c r="K21" s="2">
+        <v>306</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.92</v>
+      </c>
       <c r="M21">
         <v>0</v>
       </c>
@@ -28532,7 +28798,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W21">
         <v>1</v>
@@ -28564,13 +28830,27 @@
       <c r="E22" s="2">
         <v>901</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="F22" s="2">
+        <v>500</v>
+      </c>
+      <c r="G22" s="2">
+        <v>525</v>
+      </c>
+      <c r="H22" s="2">
+        <v>230</v>
+      </c>
+      <c r="I22" s="2">
+        <v>11</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="K22" s="2">
+        <v>270</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="M22">
         <v>0</v>
       </c>
@@ -28578,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
         <v>1</v>
@@ -28610,13 +28890,27 @@
       <c r="E23" s="2">
         <v>903</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="F23" s="2">
+        <v>500</v>
+      </c>
+      <c r="G23" s="2">
+        <v>525</v>
+      </c>
+      <c r="H23" s="2">
+        <v>230</v>
+      </c>
+      <c r="I23" s="2">
+        <v>11</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="K23" s="2">
+        <v>270</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.246</v>
+      </c>
       <c r="M23">
         <v>0</v>
       </c>
@@ -28656,13 +28950,27 @@
       <c r="E24" s="2">
         <v>903</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="F24" s="2">
+        <v>500</v>
+      </c>
+      <c r="G24" s="2">
+        <v>525</v>
+      </c>
+      <c r="H24" s="2">
+        <v>230</v>
+      </c>
+      <c r="I24" s="2">
+        <v>11</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="K24" s="2">
+        <v>270</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.246</v>
+      </c>
       <c r="M24">
         <v>0</v>
       </c>
@@ -28670,7 +28978,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W24">
         <v>1</v>
@@ -28702,13 +29010,27 @@
       <c r="E25" s="2">
         <v>905</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="F25" s="2">
+        <v>240</v>
+      </c>
+      <c r="G25" s="2">
+        <v>230</v>
+      </c>
+      <c r="H25" s="2">
+        <v>121</v>
+      </c>
+      <c r="I25" s="2">
+        <v>20</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="K25" s="2">
+        <v>450</v>
+      </c>
+      <c r="L25" s="2">
+        <v>3</v>
+      </c>
       <c r="M25">
         <v>0</v>
       </c>
@@ -28716,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25">
         <v>1</v>
@@ -28748,13 +29070,27 @@
       <c r="E26" s="2">
         <v>913</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="F26" s="2">
+        <v>250</v>
+      </c>
+      <c r="G26" s="2">
+        <v>230</v>
+      </c>
+      <c r="H26" s="2">
+        <v>121</v>
+      </c>
+      <c r="I26" s="2">
+        <v>11</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="K26" s="2">
+        <v>65</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.4</v>
+      </c>
       <c r="M26">
         <v>0</v>
       </c>
@@ -28762,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26">
         <v>1</v>
@@ -28794,13 +29130,27 @@
       <c r="E27" s="2">
         <v>939</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="F27" s="2">
+        <v>501</v>
+      </c>
+      <c r="G27" s="2">
+        <v>525</v>
+      </c>
+      <c r="H27" s="2">
+        <v>220</v>
+      </c>
+      <c r="I27" s="2">
+        <v>11</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="K27" s="2">
+        <v>270</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.246</v>
+      </c>
       <c r="M27">
         <v>0</v>
       </c>
@@ -28840,13 +29190,27 @@
       <c r="E28" s="2">
         <v>939</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="F28" s="2">
+        <v>501</v>
+      </c>
+      <c r="G28" s="2">
+        <v>525</v>
+      </c>
+      <c r="H28" s="2">
+        <v>220</v>
+      </c>
+      <c r="I28" s="2">
+        <v>11</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="K28" s="2">
+        <v>270</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.246</v>
+      </c>
       <c r="M28">
         <v>0</v>
       </c>
@@ -28854,7 +29218,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <v>1</v>
@@ -28886,13 +29250,27 @@
       <c r="E29" s="2">
         <v>981</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+      <c r="F29" s="2">
+        <v>500</v>
+      </c>
+      <c r="G29" s="2">
+        <v>525</v>
+      </c>
+      <c r="H29" s="2">
+        <v>230</v>
+      </c>
+      <c r="I29" s="2">
+        <v>11</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="K29" s="2">
+        <v>270</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="M29">
         <v>0</v>
       </c>
@@ -28900,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29">
         <v>1</v>
@@ -28932,13 +29310,27 @@
       <c r="E30" s="2">
         <v>988</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="F30" s="2">
+        <v>501</v>
+      </c>
+      <c r="G30" s="2">
+        <v>525</v>
+      </c>
+      <c r="H30" s="2">
+        <v>220</v>
+      </c>
+      <c r="I30" s="2">
+        <v>11</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="K30" s="2">
+        <v>270</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.246</v>
+      </c>
       <c r="M30">
         <v>0</v>
       </c>
@@ -28946,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30">
         <v>1</v>
@@ -28978,13 +29370,27 @@
       <c r="E31" s="2">
         <v>2918</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="F31" s="2">
+        <v>501</v>
+      </c>
+      <c r="G31" s="2">
+        <v>500</v>
+      </c>
+      <c r="H31" s="2">
+        <v>220</v>
+      </c>
+      <c r="I31" s="2">
+        <v>11</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="K31" s="2">
+        <v>270</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.246</v>
+      </c>
       <c r="M31">
         <v>0</v>
       </c>
@@ -29024,13 +29430,27 @@
       <c r="E32" s="2">
         <v>2918</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="F32" s="2">
+        <v>501</v>
+      </c>
+      <c r="G32" s="2">
+        <v>500</v>
+      </c>
+      <c r="H32" s="2">
+        <v>220</v>
+      </c>
+      <c r="I32" s="2">
+        <v>11</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="K32" s="2">
+        <v>270</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.246</v>
+      </c>
       <c r="M32">
         <v>0</v>
       </c>
@@ -29038,7 +29458,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W32">
         <v>1</v>
@@ -29070,13 +29490,27 @@
       <c r="E33" s="2">
         <v>932</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="F33" s="2">
+        <v>501</v>
+      </c>
+      <c r="G33" s="2">
+        <v>525</v>
+      </c>
+      <c r="H33" s="2">
+        <v>220</v>
+      </c>
+      <c r="I33" s="2">
+        <v>11</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="K33" s="2">
+        <v>270</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0.246</v>
+      </c>
       <c r="M33">
         <v>0</v>
       </c>
@@ -29084,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33">
         <v>1</v>
